--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="488">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -61,18 +61,21 @@
     <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
+    <t xml:space="preserve"> y(Dutch Flag Partitioning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y(QUICKSORT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> y</t>
   </si>
   <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> y(QUICKSORT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
   </si>
   <si>
@@ -214,40 +217,46 @@
     <t xml:space="preserve">Spiral traversal on a Matrix</t>
   </si>
   <si>
+    <t xml:space="preserve">Search an element in a matriix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YES(greatest area rectangle histogram)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YES(Modified heap sort for matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
   </si>
   <si>
     <t xml:space="preserve">Check whether a String is Palindrome or not</t>
@@ -1734,11 +1743,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1835,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,21 +1852,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -1876,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
@@ -1887,10 +1896,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,10 +1907,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>9</v>
@@ -1920,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -1931,10 +1940,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +1951,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,10 +1962,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,10 +1973,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
@@ -1986,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>9</v>
@@ -1997,10 +2006,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
@@ -2019,10 +2028,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>9</v>
@@ -2041,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,10 +2061,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,10 +2072,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>9</v>
@@ -2085,10 +2094,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>9</v>
@@ -2107,7 +2116,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>9</v>
@@ -2118,10 +2127,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>9</v>
@@ -2151,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>7</v>
@@ -2162,10 +2171,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,121 +2183,121 @@
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>64</v>
+      <c r="C46" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,475 +2309,475 @@
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,398 +2789,398 @@
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,398 +3192,398 @@
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,387 +3595,387 @@
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,244 +3992,244 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,387 +4245,387 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,211 +4641,211 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4852,420 +4861,420 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5281,200 +5290,200 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,486 +5499,486 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,68 +5994,68 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,662 +6071,662 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,112 +6742,112 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="517">
+  <si>
+    <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
+  </si>
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -448,6 +451,9 @@
     <t xml:space="preserve">Optimum location of point to minimize total distance</t>
   </si>
   <si>
+    <t xml:space="preserve">y(Ternary Search)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the repeating and the missing</t>
   </si>
   <si>
@@ -544,12 +550,18 @@
     <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Recursive see)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
   </si>
   <si>
     <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
   </si>
   <si>
+    <t xml:space="preserve">y(Floyd cycle detection)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
   </si>
   <si>
@@ -568,6 +580,9 @@
     <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
   </si>
   <si>
+    <t xml:space="preserve">y(recursion)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add two numbers represented by linked lists.</t>
   </si>
   <si>
@@ -577,15 +592,24 @@
     <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Modified Floyd Cycle Detection)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
   </si>
   <si>
+    <t xml:space="preserve"> YES(see comment doubly linked list)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
   </si>
   <si>
     <t xml:space="preserve">Find the middle Element of a linked list.</t>
   </si>
   <si>
+    <t xml:space="preserve">YES&lt;modified Floyd Cycle Detection)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
   </si>
   <si>
@@ -607,9 +631,15 @@
     <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
   </si>
   <si>
+    <t xml:space="preserve">y(same as previous)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(insertion sort || heapsort-minheap)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
   </si>
   <si>
@@ -619,12 +649,18 @@
     <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
   </si>
   <si>
+    <t xml:space="preserve">BROWSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
   </si>
   <si>
     <t xml:space="preserve">Flatten a Linked List</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(tweaked mergesort)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
   </si>
   <si>
@@ -634,12 +670,18 @@
     <t xml:space="preserve">Merge K sorted Linked list</t>
   </si>
   <si>
+    <t xml:space="preserve">y(similar to flatten a linked list)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multiply 2 no. represented by LL</t>
   </si>
   <si>
     <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(recursion)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
   </si>
   <si>
@@ -647,6 +689,9 @@
   </si>
   <si>
     <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(Using DLL)</t>
   </si>
   <si>
     <t xml:space="preserve">Binary Trees</t>
@@ -1557,14 +1602,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1622,6 +1659,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1664,7 +1709,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -1673,23 +1718,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1697,27 +1742,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1801,37 +1846,39 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B109" activeCellId="0" sqref="B109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B115" activeCellId="0" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,5073 +1887,5073 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="10"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="B45" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>43</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="B57" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
         <v>36</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="B102" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B140" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="B141" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B176" s="10"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B191" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="B192" s="8" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7"/>
       <c r="B212" s="10"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="n">
         <v>22</v>
       </c>
       <c r="B213" s="10"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B228" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="B229" s="8" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="10"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="6"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B252" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="B253" s="8" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="10"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B274" s="10"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B289" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C289" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="B290" s="8" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="10"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B295" s="10"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B310" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C310" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="B311" s="8" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="10"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B335" s="10"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B350" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C350" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="B351" s="8" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="10"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B355" s="10"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B370" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C370" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="B371" s="8" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="10"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B401" s="10"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="10"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B409" s="10"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B425" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C425" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="B426" s="8" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="10"/>
       <c r="C470" s="6"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B471" s="10"/>
       <c r="C471" s="6"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -7360,7 +7407,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="525">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -475,9 +475,6 @@
     <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
   </si>
   <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
     <t xml:space="preserve">print all subarrays with 0 sum</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
     <t xml:space="preserve">Right View of Tree</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Similar as previous)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top View of a tree</t>
   </si>
   <si>
@@ -736,6 +736,9 @@
     <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Similar to level order with L-R selection)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if a tree is balanced or not</t>
   </si>
   <si>
@@ -757,9 +760,15 @@
     <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Important)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Inorder of BST is sorted)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
   </si>
   <si>
@@ -769,9 +778,15 @@
     <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Tree serialization and hasing)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if 2 trees are mirror or not</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(stack in map as N-ary tree)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
@@ -784,6 +799,39 @@
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">YES(memoization or using pair(see 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">))</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
   </si>
   <si>
@@ -796,7 +844,13 @@
     <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Backtracking)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y(similar to 24duplicateSubtreeInBT)</t>
   </si>
   <si>
     <t xml:space="preserve">Tree Isomorphism Problem</t>
@@ -1580,7 +1634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1663,6 +1717,14 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1846,11 +1908,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B115" activeCellId="0" sqref="B115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C212" activeCellId="0" sqref="C212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.76"/>
@@ -3036,12 +3098,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -3052,7 +3114,7 @@
         <v>136</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>119</v>
@@ -3063,7 +3125,7 @@
         <v>136</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>119</v>
@@ -3074,7 +3136,7 @@
         <v>136</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>119</v>
@@ -3085,7 +3147,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>119</v>
@@ -3096,7 +3158,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>119</v>
@@ -3107,7 +3169,7 @@
         <v>136</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>119</v>
@@ -3118,7 +3180,7 @@
         <v>136</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>119</v>
@@ -3129,7 +3191,7 @@
         <v>136</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>119</v>
@@ -3140,7 +3202,7 @@
         <v>136</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>119</v>
@@ -3151,7 +3213,7 @@
         <v>136</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>119</v>
@@ -3162,7 +3224,7 @@
         <v>136</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>119</v>
@@ -3173,7 +3235,7 @@
         <v>136</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>119</v>
@@ -3184,7 +3246,7 @@
         <v>136</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>119</v>
@@ -3195,7 +3257,7 @@
         <v>136</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>119</v>
@@ -3206,7 +3268,7 @@
         <v>136</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>119</v>
@@ -3217,7 +3279,7 @@
         <v>136</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>119</v>
@@ -3228,7 +3290,7 @@
         <v>136</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>119</v>
@@ -3239,7 +3301,7 @@
         <v>136</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>119</v>
@@ -3250,7 +3312,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>119</v>
@@ -3261,7 +3323,7 @@
         <v>136</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>119</v>
@@ -3272,7 +3334,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>119</v>
@@ -3283,7 +3345,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>119</v>
@@ -3298,21 +3360,21 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="C139" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>0</v>
@@ -3320,21 +3382,21 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B141" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>8</v>
@@ -3342,10 +3404,10 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>8</v>
@@ -3353,10 +3415,10 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>8</v>
@@ -3364,10 +3426,10 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>10</v>
@@ -3375,10 +3437,10 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>8</v>
@@ -3386,65 +3448,65 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B147" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B150" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B151" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>35</v>
@@ -3452,21 +3514,21 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B153" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>10</v>
@@ -3474,10 +3536,10 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>8</v>
@@ -3485,10 +3547,10 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>8</v>
@@ -3496,10 +3558,10 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>8</v>
@@ -3507,10 +3569,10 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -3518,10 +3580,10 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
@@ -3529,32 +3591,32 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B160" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B161" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>8</v>
@@ -3562,10 +3624,10 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -3573,43 +3635,43 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B166" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>8</v>
@@ -3617,10 +3679,10 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>10</v>
@@ -3628,21 +3690,21 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>8</v>
@@ -3650,21 +3712,21 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C171" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>8</v>
@@ -3672,416 +3734,416 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B176" s="10"/>
       <c r="C176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="C177" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>119</v>
+        <v>228</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>119</v>
+        <v>229</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>119</v>
+        <v>230</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>119</v>
+        <v>231</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>119</v>
+        <v>232</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>119</v>
+      <c r="C187" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>236</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>119</v>
+        <v>240</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>119</v>
+        <v>241</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>119</v>
+        <v>242</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>119</v>
+        <v>243</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>119</v>
+        <v>245</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>119</v>
+        <v>247</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>119</v>
+        <v>253</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>119</v>
+        <v>256</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>119</v>
+        <v>263</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>119</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,10 +4160,10 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>119</v>
@@ -4109,10 +4171,10 @@
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>119</v>
@@ -4120,10 +4182,10 @@
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>119</v>
@@ -4131,10 +4193,10 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>119</v>
@@ -4142,10 +4204,10 @@
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>119</v>
@@ -4153,10 +4215,10 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>119</v>
@@ -4164,10 +4226,10 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>119</v>
@@ -4175,10 +4237,10 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>119</v>
@@ -4186,10 +4248,10 @@
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>119</v>
@@ -4197,10 +4259,10 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>119</v>
@@ -4208,10 +4270,10 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>119</v>
@@ -4219,10 +4281,10 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>119</v>
@@ -4230,10 +4292,10 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>119</v>
@@ -4241,10 +4303,10 @@
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>119</v>
@@ -4252,10 +4314,10 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>119</v>
@@ -4263,10 +4325,10 @@
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>119</v>
@@ -4274,10 +4336,10 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>119</v>
@@ -4285,10 +4347,10 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>119</v>
@@ -4296,10 +4358,10 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>119</v>
@@ -4307,10 +4369,10 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>119</v>
@@ -4318,10 +4380,10 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>119</v>
@@ -4329,10 +4391,10 @@
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>119</v>
@@ -4351,10 +4413,10 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>119</v>
@@ -4362,10 +4424,10 @@
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>119</v>
@@ -4373,10 +4435,10 @@
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>119</v>
@@ -4384,10 +4446,10 @@
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>119</v>
@@ -4395,10 +4457,10 @@
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>119</v>
@@ -4406,10 +4468,10 @@
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>119</v>
@@ -4417,10 +4479,10 @@
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>119</v>
@@ -4428,10 +4490,10 @@
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>119</v>
@@ -4439,10 +4501,10 @@
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>119</v>
@@ -4450,10 +4512,10 @@
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>119</v>
@@ -4461,10 +4523,10 @@
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>119</v>
@@ -4472,10 +4534,10 @@
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>119</v>
@@ -4483,10 +4545,10 @@
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>119</v>
@@ -4494,10 +4556,10 @@
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>119</v>
@@ -4505,10 +4567,10 @@
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>119</v>
@@ -4516,10 +4578,10 @@
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>119</v>
@@ -4527,10 +4589,10 @@
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>119</v>
@@ -4538,10 +4600,10 @@
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>119</v>
@@ -4549,10 +4611,10 @@
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>119</v>
@@ -4560,10 +4622,10 @@
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>119</v>
@@ -4571,10 +4633,10 @@
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>119</v>
@@ -4582,10 +4644,10 @@
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>119</v>
@@ -4593,10 +4655,10 @@
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>119</v>
@@ -4604,10 +4666,10 @@
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>119</v>
@@ -4615,10 +4677,10 @@
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>119</v>
@@ -4626,10 +4688,10 @@
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>119</v>
@@ -4637,10 +4699,10 @@
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>119</v>
@@ -4648,10 +4710,10 @@
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>119</v>
@@ -4659,10 +4721,10 @@
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>119</v>
@@ -4670,10 +4732,10 @@
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>119</v>
@@ -4681,10 +4743,10 @@
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>119</v>
@@ -4692,10 +4754,10 @@
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>119</v>
@@ -4703,10 +4765,10 @@
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>119</v>
@@ -4714,7 +4776,7 @@
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>120</v>
@@ -4725,10 +4787,10 @@
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>119</v>
@@ -4747,10 +4809,10 @@
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>119</v>
@@ -4758,10 +4820,10 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>119</v>
@@ -4769,10 +4831,10 @@
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>119</v>
@@ -4780,10 +4842,10 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>119</v>
@@ -4791,10 +4853,10 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>119</v>
@@ -4802,10 +4864,10 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>119</v>
@@ -4813,10 +4875,10 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>119</v>
@@ -4824,10 +4886,10 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>119</v>
@@ -4835,10 +4897,10 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>119</v>
@@ -4846,10 +4908,10 @@
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>119</v>
@@ -4857,10 +4919,10 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>119</v>
@@ -4868,10 +4930,10 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>119</v>
@@ -4879,10 +4941,10 @@
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>119</v>
@@ -4890,10 +4952,10 @@
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>119</v>
@@ -4901,10 +4963,10 @@
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>119</v>
@@ -4912,10 +4974,10 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>119</v>
@@ -4923,10 +4985,10 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>119</v>
@@ -4934,10 +4996,10 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>119</v>
@@ -4945,10 +5007,10 @@
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>119</v>
@@ -4967,10 +5029,10 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>119</v>
@@ -4978,10 +5040,10 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>119</v>
@@ -4989,10 +5051,10 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>119</v>
@@ -5000,10 +5062,10 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>119</v>
@@ -5011,10 +5073,10 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>119</v>
@@ -5022,10 +5084,10 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>119</v>
@@ -5033,10 +5095,10 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>119</v>
@@ -5044,10 +5106,10 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>119</v>
@@ -5055,10 +5117,10 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>119</v>
@@ -5066,10 +5128,10 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>119</v>
@@ -5077,10 +5139,10 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>119</v>
@@ -5088,10 +5150,10 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>119</v>
@@ -5099,10 +5161,10 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>119</v>
@@ -5110,10 +5172,10 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>119</v>
@@ -5121,10 +5183,10 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>119</v>
@@ -5132,10 +5194,10 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>119</v>
@@ -5143,10 +5205,10 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>119</v>
@@ -5154,10 +5216,10 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>119</v>
@@ -5165,10 +5227,10 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>119</v>
@@ -5176,10 +5238,10 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>119</v>
@@ -5187,10 +5249,10 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>119</v>
@@ -5198,10 +5260,10 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>119</v>
@@ -5209,10 +5271,10 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>119</v>
@@ -5220,10 +5282,10 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>119</v>
@@ -5231,10 +5293,10 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>119</v>
@@ -5242,10 +5304,10 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>119</v>
@@ -5253,10 +5315,10 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>119</v>
@@ -5264,10 +5326,10 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>119</v>
@@ -5275,10 +5337,10 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>119</v>
@@ -5286,10 +5348,10 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>119</v>
@@ -5297,10 +5359,10 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>119</v>
@@ -5308,10 +5370,10 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>119</v>
@@ -5319,10 +5381,10 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>119</v>
@@ -5330,10 +5392,10 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>119</v>
@@ -5341,10 +5403,10 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>119</v>
@@ -5352,10 +5414,10 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>119</v>
@@ -5363,10 +5425,10 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>119</v>
@@ -5374,10 +5436,10 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>119</v>
@@ -5396,10 +5458,10 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>119</v>
@@ -5407,10 +5469,10 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>119</v>
@@ -5418,10 +5480,10 @@
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>119</v>
@@ -5429,10 +5491,10 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>119</v>
@@ -5440,10 +5502,10 @@
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>119</v>
@@ -5451,10 +5513,10 @@
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>119</v>
@@ -5462,10 +5524,10 @@
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>119</v>
@@ -5473,10 +5535,10 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>119</v>
@@ -5484,10 +5546,10 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>119</v>
@@ -5495,10 +5557,10 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>119</v>
@@ -5506,10 +5568,10 @@
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>119</v>
@@ -5517,10 +5579,10 @@
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>119</v>
@@ -5528,10 +5590,10 @@
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>119</v>
@@ -5539,10 +5601,10 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>119</v>
@@ -5550,10 +5612,10 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>119</v>
@@ -5561,10 +5623,10 @@
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>119</v>
@@ -5572,10 +5634,10 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>119</v>
@@ -5583,10 +5645,10 @@
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>119</v>
@@ -5605,10 +5667,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>119</v>
@@ -5616,10 +5678,10 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>119</v>
@@ -5627,10 +5689,10 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>119</v>
@@ -5638,10 +5700,10 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>119</v>
@@ -5649,10 +5711,10 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>119</v>
@@ -5660,10 +5722,10 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>119</v>
@@ -5671,10 +5733,10 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>119</v>
@@ -5682,10 +5744,10 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>119</v>
@@ -5693,10 +5755,10 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>119</v>
@@ -5704,10 +5766,10 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>119</v>
@@ -5715,10 +5777,10 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>119</v>
@@ -5726,10 +5788,10 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>119</v>
@@ -5737,10 +5799,10 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>119</v>
@@ -5748,10 +5810,10 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>119</v>
@@ -5759,10 +5821,10 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>119</v>
@@ -5770,10 +5832,10 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>119</v>
@@ -5781,10 +5843,10 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>119</v>
@@ -5792,10 +5854,10 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>119</v>
@@ -5803,10 +5865,10 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>119</v>
@@ -5814,10 +5876,10 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>119</v>
@@ -5825,10 +5887,10 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>119</v>
@@ -5836,10 +5898,10 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>119</v>
@@ -5847,10 +5909,10 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>119</v>
@@ -5858,10 +5920,10 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>119</v>
@@ -5869,10 +5931,10 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>119</v>
@@ -5880,10 +5942,10 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>119</v>
@@ -5891,10 +5953,10 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>119</v>
@@ -5902,10 +5964,10 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>119</v>
@@ -5913,10 +5975,10 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>119</v>
@@ -5924,10 +5986,10 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>119</v>
@@ -5935,10 +5997,10 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>119</v>
@@ -5946,10 +6008,10 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>119</v>
@@ -5957,10 +6019,10 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>119</v>
@@ -5968,10 +6030,10 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>119</v>
@@ -5979,10 +6041,10 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>119</v>
@@ -5990,10 +6052,10 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>119</v>
@@ -6001,10 +6063,10 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>119</v>
@@ -6012,10 +6074,10 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>119</v>
@@ -6023,10 +6085,10 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>119</v>
@@ -6034,10 +6096,10 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>119</v>
@@ -6045,10 +6107,10 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>119</v>
@@ -6056,10 +6118,10 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>119</v>
@@ -6067,10 +6129,10 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>119</v>
@@ -6078,10 +6140,10 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>119</v>
@@ -6100,10 +6162,10 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>119</v>
@@ -6111,10 +6173,10 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>119</v>
@@ -6122,10 +6184,10 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>119</v>
@@ -6133,7 +6195,7 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>122</v>
@@ -6144,10 +6206,10 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>119</v>
@@ -6155,10 +6217,10 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>119</v>
@@ -6177,10 +6239,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>119</v>
@@ -6188,10 +6250,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>119</v>
@@ -6199,10 +6261,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>119</v>
@@ -6210,10 +6272,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>119</v>
@@ -6221,10 +6283,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>119</v>
@@ -6232,10 +6294,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>119</v>
@@ -6243,10 +6305,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>119</v>
@@ -6254,10 +6316,10 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>119</v>
@@ -6265,10 +6327,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>119</v>
@@ -6276,10 +6338,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>119</v>
@@ -6287,10 +6349,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>119</v>
@@ -6298,10 +6360,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>119</v>
@@ -6309,10 +6371,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>119</v>
@@ -6320,10 +6382,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>119</v>
@@ -6331,10 +6393,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>119</v>
@@ -6342,10 +6404,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>119</v>
@@ -6353,10 +6415,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>119</v>
@@ -6364,10 +6426,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>119</v>
@@ -6375,10 +6437,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>119</v>
@@ -6386,10 +6448,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>119</v>
@@ -6397,10 +6459,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>119</v>
@@ -6408,10 +6470,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>119</v>
@@ -6419,10 +6481,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>119</v>
@@ -6430,10 +6492,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>119</v>
@@ -6441,10 +6503,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>119</v>
@@ -6452,10 +6514,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>119</v>
@@ -6463,10 +6525,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>119</v>
@@ -6474,10 +6536,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>119</v>
@@ -6485,10 +6547,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>119</v>
@@ -6496,10 +6558,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>119</v>
@@ -6507,10 +6569,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>119</v>
@@ -6518,10 +6580,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>119</v>
@@ -6529,10 +6591,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>119</v>
@@ -6540,10 +6602,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>119</v>
@@ -6551,10 +6613,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>119</v>
@@ -6562,10 +6624,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>119</v>
@@ -6573,10 +6635,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>119</v>
@@ -6584,10 +6646,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>119</v>
@@ -6595,10 +6657,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>119</v>
@@ -6606,10 +6668,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>119</v>
@@ -6617,10 +6679,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>119</v>
@@ -6628,10 +6690,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>119</v>
@@ -6639,10 +6701,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>119</v>
@@ -6650,10 +6712,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>119</v>
@@ -6661,10 +6723,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>119</v>
@@ -6672,10 +6734,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>119</v>
@@ -6683,10 +6745,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>119</v>
@@ -6694,10 +6756,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>119</v>
@@ -6705,10 +6767,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>119</v>
@@ -6716,10 +6778,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>119</v>
@@ -6727,10 +6789,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>119</v>
@@ -6738,10 +6800,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>119</v>
@@ -6749,10 +6811,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>119</v>
@@ -6760,10 +6822,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>119</v>
@@ -6771,10 +6833,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>119</v>
@@ -6782,10 +6844,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>119</v>
@@ -6793,10 +6855,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>119</v>
@@ -6804,10 +6866,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>119</v>
@@ -6815,10 +6877,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>119</v>
@@ -6826,10 +6888,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>119</v>
@@ -6848,10 +6910,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>119</v>
@@ -6859,10 +6921,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>119</v>
@@ -6870,10 +6932,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>119</v>
@@ -6881,10 +6943,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>119</v>
@@ -6892,10 +6954,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>119</v>
@@ -6903,10 +6965,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>119</v>
@@ -6914,10 +6976,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>119</v>
@@ -6925,10 +6987,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>119</v>
@@ -6936,10 +6998,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>119</v>
@@ -6947,10 +7009,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>119</v>
@@ -7060,350 +7122,349 @@
     <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
     <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
     <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B115" r:id="rId103" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId104" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId105" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId107" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId108" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId109" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId110" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId112" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId113" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId114" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId115" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId116" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId118" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId119" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId120" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId121" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId122" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId123" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId129" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId134" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId135" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId136" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId139" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId140" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId141" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId143" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId144" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId150" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId152" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId153" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId154" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId159" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId160" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId161" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId162" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId163" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId167" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId168" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId169" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId170" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId172" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId174" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId177" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId183" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId186" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId189" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId193" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId194" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId195" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId196" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId198" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId199" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId201" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId202" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId205" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId206" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId210" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId212" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId213" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId215" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId216" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId217" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId218" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId219" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId220" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId223" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId228" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId229" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId230" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId231" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId239" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId241" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId243" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId244" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId246" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId247" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId251" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId253" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId254" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId255" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId256" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId257" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId258" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId259" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId260" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId262" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId264" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId270" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId271" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId272" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId273" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId276" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId278" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId279" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId281" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId283" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId284" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId285" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId286" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId287" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId288" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId289" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId290" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId292" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId294" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId295" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId296" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId298" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId300" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId302" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId307" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId310" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId311" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId315" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId316" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId318" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId319" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId320" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId322" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId323" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId326" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId327" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId328" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId331" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId332" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId333" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId334" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId335" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId336" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId337" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId338" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId341" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId344" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId348" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId350" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId351" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId354" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId356" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId357" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId358" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId359" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId362" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId365" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId366" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId369" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId370" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId374" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId376" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId377" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId378" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId379" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId380" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId381" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId382" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId383" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId384" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId385" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId386" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId387" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId388" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId389" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId390" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId391" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId392" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId395" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId398" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId399" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId402" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId404" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId407" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId411" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId413" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId414" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId415" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId416" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId418" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId419" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId420" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId421" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId424" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId425" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId426" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId427" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId429" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId435" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId436" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId440" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId441" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId442" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId445" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="532">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -862,15 +862,24 @@
     <t xml:space="preserve">Fina a value in a BST</t>
   </si>
   <si>
+    <t xml:space="preserve">y(search and insert leaf)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deletion of a node in a BST</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(recursive and iterative)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find min and max value in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see condtion if key not present in tree)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
@@ -883,6 +892,9 @@
     <t xml:space="preserve">Construct BST from preorder traversal</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Check modified recursion (using range))</t>
+  </si>
+  <si>
     <t xml:space="preserve">Convert Binary tree into BST</t>
   </si>
   <si>
@@ -898,12 +910,18 @@
     <t xml:space="preserve">Find Kth smallest element in a BST</t>
   </si>
   <si>
+    <t xml:space="preserve">y(similar to previous)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
   </si>
   <si>
     <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(MORRIS INORDER TRAVERSAL)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
   </si>
   <si>
@@ -920,6 +938,9 @@
   </si>
   <si>
     <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(postorder return info of each subtree)</t>
   </si>
   <si>
     <t xml:space="preserve">Flatten BST to sorted list</t>
@@ -1908,15 +1929,16 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C212" activeCellId="0" sqref="C212"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C237" activeCellId="0" sqref="C237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +4188,7 @@
         <v>269</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,21 +4196,21 @@
         <v>268</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4196,10 +4218,10 @@
         <v>268</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,10 +4229,10 @@
         <v>268</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>119</v>
+        <v>276</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,10 +4240,10 @@
         <v>268</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,10 +4251,10 @@
         <v>268</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,10 +4262,10 @@
         <v>268</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>119</v>
+        <v>279</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,21 +4273,21 @@
         <v>268</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>119</v>
+        <v>282</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4273,21 +4295,21 @@
         <v>268</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>119</v>
+        <v>284</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,10 +4317,10 @@
         <v>268</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,21 +4328,21 @@
         <v>268</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>119</v>
+        <v>288</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,10 +4350,10 @@
         <v>268</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,21 +4361,21 @@
         <v>268</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>119</v>
+        <v>292</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,10 +4383,10 @@
         <v>268</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,32 +4394,32 @@
         <v>268</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>119</v>
+        <v>297</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,10 +4435,10 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>119</v>
@@ -4424,10 +4446,10 @@
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>119</v>
@@ -4435,10 +4457,10 @@
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>119</v>
@@ -4446,10 +4468,10 @@
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>119</v>
@@ -4457,10 +4479,10 @@
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>119</v>
@@ -4468,10 +4490,10 @@
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>119</v>
@@ -4479,10 +4501,10 @@
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>119</v>
@@ -4490,10 +4512,10 @@
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>119</v>
@@ -4501,10 +4523,10 @@
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>119</v>
@@ -4512,10 +4534,10 @@
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>119</v>
@@ -4523,10 +4545,10 @@
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>119</v>
@@ -4534,10 +4556,10 @@
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>119</v>
@@ -4545,10 +4567,10 @@
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>119</v>
@@ -4556,10 +4578,10 @@
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>119</v>
@@ -4567,10 +4589,10 @@
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>119</v>
@@ -4578,10 +4600,10 @@
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>119</v>
@@ -4589,10 +4611,10 @@
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>119</v>
@@ -4600,10 +4622,10 @@
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>119</v>
@@ -4611,10 +4633,10 @@
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>119</v>
@@ -4622,10 +4644,10 @@
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>119</v>
@@ -4633,10 +4655,10 @@
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>119</v>
@@ -4644,10 +4666,10 @@
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>119</v>
@@ -4655,10 +4677,10 @@
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>119</v>
@@ -4666,10 +4688,10 @@
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>119</v>
@@ -4677,10 +4699,10 @@
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>119</v>
@@ -4688,10 +4710,10 @@
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>119</v>
@@ -4699,10 +4721,10 @@
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>119</v>
@@ -4710,10 +4732,10 @@
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>119</v>
@@ -4721,10 +4743,10 @@
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>119</v>
@@ -4732,10 +4754,10 @@
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>119</v>
@@ -4743,10 +4765,10 @@
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>119</v>
@@ -4754,10 +4776,10 @@
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>119</v>
@@ -4765,10 +4787,10 @@
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>119</v>
@@ -4776,7 +4798,7 @@
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>120</v>
@@ -4787,10 +4809,10 @@
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>119</v>
@@ -4802,17 +4824,17 @@
     </row>
     <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B274" s="10"/>
       <c r="C274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>119</v>
@@ -4820,10 +4842,10 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>119</v>
@@ -4831,10 +4853,10 @@
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>119</v>
@@ -4842,10 +4864,10 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>119</v>
@@ -4853,10 +4875,10 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>119</v>
@@ -4864,10 +4886,10 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>119</v>
@@ -4875,10 +4897,10 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>119</v>
@@ -4886,10 +4908,10 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>119</v>
@@ -4897,10 +4919,10 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>119</v>
@@ -4908,10 +4930,10 @@
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>119</v>
@@ -4919,10 +4941,10 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>119</v>
@@ -4930,10 +4952,10 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>119</v>
@@ -4941,10 +4963,10 @@
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>119</v>
@@ -4952,10 +4974,10 @@
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>119</v>
@@ -4963,10 +4985,10 @@
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>119</v>
@@ -4974,10 +4996,10 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>119</v>
@@ -4985,10 +5007,10 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>119</v>
@@ -4996,10 +5018,10 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>119</v>
@@ -5007,10 +5029,10 @@
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>119</v>
@@ -5029,10 +5051,10 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>119</v>
@@ -5040,10 +5062,10 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>119</v>
@@ -5051,10 +5073,10 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>119</v>
@@ -5062,10 +5084,10 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>119</v>
@@ -5073,10 +5095,10 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>119</v>
@@ -5084,10 +5106,10 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>119</v>
@@ -5095,10 +5117,10 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>119</v>
@@ -5106,10 +5128,10 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>119</v>
@@ -5117,10 +5139,10 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>119</v>
@@ -5128,10 +5150,10 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>119</v>
@@ -5139,10 +5161,10 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>119</v>
@@ -5150,10 +5172,10 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>119</v>
@@ -5161,10 +5183,10 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>119</v>
@@ -5172,10 +5194,10 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>119</v>
@@ -5183,10 +5205,10 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>119</v>
@@ -5194,10 +5216,10 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>119</v>
@@ -5205,10 +5227,10 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>119</v>
@@ -5216,10 +5238,10 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>119</v>
@@ -5227,10 +5249,10 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>119</v>
@@ -5238,10 +5260,10 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>119</v>
@@ -5249,10 +5271,10 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>119</v>
@@ -5260,10 +5282,10 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>119</v>
@@ -5271,10 +5293,10 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>119</v>
@@ -5282,10 +5304,10 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>119</v>
@@ -5293,10 +5315,10 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>119</v>
@@ -5304,10 +5326,10 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>119</v>
@@ -5315,10 +5337,10 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>119</v>
@@ -5326,10 +5348,10 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>119</v>
@@ -5337,10 +5359,10 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>119</v>
@@ -5348,10 +5370,10 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>119</v>
@@ -5359,10 +5381,10 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>119</v>
@@ -5370,10 +5392,10 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>119</v>
@@ -5381,10 +5403,10 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>119</v>
@@ -5392,10 +5414,10 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>119</v>
@@ -5403,10 +5425,10 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>119</v>
@@ -5414,10 +5436,10 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>119</v>
@@ -5425,10 +5447,10 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>119</v>
@@ -5436,10 +5458,10 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>119</v>
@@ -5458,10 +5480,10 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>119</v>
@@ -5469,10 +5491,10 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>119</v>
@@ -5480,10 +5502,10 @@
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>119</v>
@@ -5491,10 +5513,10 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>119</v>
@@ -5502,10 +5524,10 @@
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>119</v>
@@ -5513,10 +5535,10 @@
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>119</v>
@@ -5524,10 +5546,10 @@
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>119</v>
@@ -5535,10 +5557,10 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>119</v>
@@ -5546,10 +5568,10 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>119</v>
@@ -5557,10 +5579,10 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>119</v>
@@ -5568,10 +5590,10 @@
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>119</v>
@@ -5579,10 +5601,10 @@
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>119</v>
@@ -5590,10 +5612,10 @@
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>119</v>
@@ -5601,10 +5623,10 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>119</v>
@@ -5612,10 +5634,10 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>119</v>
@@ -5623,10 +5645,10 @@
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>119</v>
@@ -5634,10 +5656,10 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>119</v>
@@ -5645,10 +5667,10 @@
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>119</v>
@@ -5667,10 +5689,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>119</v>
@@ -5678,10 +5700,10 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>119</v>
@@ -5689,10 +5711,10 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>119</v>
@@ -5700,10 +5722,10 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>119</v>
@@ -5711,10 +5733,10 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>119</v>
@@ -5722,10 +5744,10 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>119</v>
@@ -5733,10 +5755,10 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>119</v>
@@ -5744,10 +5766,10 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>119</v>
@@ -5755,10 +5777,10 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>119</v>
@@ -5766,10 +5788,10 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>119</v>
@@ -5777,10 +5799,10 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>119</v>
@@ -5788,10 +5810,10 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>119</v>
@@ -5799,10 +5821,10 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>119</v>
@@ -5810,10 +5832,10 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>119</v>
@@ -5821,10 +5843,10 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>119</v>
@@ -5832,10 +5854,10 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>119</v>
@@ -5843,10 +5865,10 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>119</v>
@@ -5854,10 +5876,10 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>119</v>
@@ -5865,10 +5887,10 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>119</v>
@@ -5876,10 +5898,10 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>119</v>
@@ -5887,10 +5909,10 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>119</v>
@@ -5898,10 +5920,10 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>119</v>
@@ -5909,10 +5931,10 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>119</v>
@@ -5920,10 +5942,10 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>119</v>
@@ -5931,10 +5953,10 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>119</v>
@@ -5942,10 +5964,10 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>119</v>
@@ -5953,10 +5975,10 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>119</v>
@@ -5964,10 +5986,10 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>119</v>
@@ -5975,10 +5997,10 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>119</v>
@@ -5986,10 +6008,10 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>119</v>
@@ -5997,10 +6019,10 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>119</v>
@@ -6008,10 +6030,10 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>119</v>
@@ -6019,10 +6041,10 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>119</v>
@@ -6030,10 +6052,10 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>119</v>
@@ -6041,10 +6063,10 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>119</v>
@@ -6052,10 +6074,10 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>119</v>
@@ -6063,10 +6085,10 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>119</v>
@@ -6074,10 +6096,10 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>119</v>
@@ -6085,10 +6107,10 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>119</v>
@@ -6096,10 +6118,10 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>119</v>
@@ -6107,10 +6129,10 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>119</v>
@@ -6118,10 +6140,10 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>119</v>
@@ -6129,10 +6151,10 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>119</v>
@@ -6140,10 +6162,10 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>119</v>
@@ -6162,10 +6184,10 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>119</v>
@@ -6173,10 +6195,10 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>119</v>
@@ -6184,10 +6206,10 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>119</v>
@@ -6195,7 +6217,7 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>122</v>
@@ -6206,10 +6228,10 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>119</v>
@@ -6217,10 +6239,10 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>119</v>
@@ -6239,10 +6261,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>119</v>
@@ -6250,10 +6272,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>119</v>
@@ -6261,10 +6283,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>119</v>
@@ -6272,10 +6294,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>119</v>
@@ -6283,10 +6305,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>119</v>
@@ -6294,10 +6316,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>119</v>
@@ -6305,10 +6327,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>119</v>
@@ -6316,10 +6338,10 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>119</v>
@@ -6327,10 +6349,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>119</v>
@@ -6338,10 +6360,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>119</v>
@@ -6349,10 +6371,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>119</v>
@@ -6360,10 +6382,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>119</v>
@@ -6371,10 +6393,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>119</v>
@@ -6382,10 +6404,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>119</v>
@@ -6393,10 +6415,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>119</v>
@@ -6404,10 +6426,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>119</v>
@@ -6415,10 +6437,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>119</v>
@@ -6426,10 +6448,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>119</v>
@@ -6437,10 +6459,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>119</v>
@@ -6448,10 +6470,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>119</v>
@@ -6459,10 +6481,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>119</v>
@@ -6470,10 +6492,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>119</v>
@@ -6481,10 +6503,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>119</v>
@@ -6492,10 +6514,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>119</v>
@@ -6503,10 +6525,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>119</v>
@@ -6514,10 +6536,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>119</v>
@@ -6525,10 +6547,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>119</v>
@@ -6536,10 +6558,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>119</v>
@@ -6547,10 +6569,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>119</v>
@@ -6558,10 +6580,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>119</v>
@@ -6569,10 +6591,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>119</v>
@@ -6580,10 +6602,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>119</v>
@@ -6591,10 +6613,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>119</v>
@@ -6602,10 +6624,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>119</v>
@@ -6613,10 +6635,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>119</v>
@@ -6624,10 +6646,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>119</v>
@@ -6635,10 +6657,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>119</v>
@@ -6646,10 +6668,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>119</v>
@@ -6657,10 +6679,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>119</v>
@@ -6668,10 +6690,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>119</v>
@@ -6679,10 +6701,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>119</v>
@@ -6690,10 +6712,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>119</v>
@@ -6701,10 +6723,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>119</v>
@@ -6712,10 +6734,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>119</v>
@@ -6723,10 +6745,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>119</v>
@@ -6734,10 +6756,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>119</v>
@@ -6745,10 +6767,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>119</v>
@@ -6756,10 +6778,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>119</v>
@@ -6767,10 +6789,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>119</v>
@@ -6778,10 +6800,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>119</v>
@@ -6789,10 +6811,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>119</v>
@@ -6800,10 +6822,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>119</v>
@@ -6811,10 +6833,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>119</v>
@@ -6822,10 +6844,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>119</v>
@@ -6833,10 +6855,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>119</v>
@@ -6844,10 +6866,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>119</v>
@@ -6855,10 +6877,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>119</v>
@@ -6866,10 +6888,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>119</v>
@@ -6877,10 +6899,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>119</v>
@@ -6888,10 +6910,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>119</v>
@@ -6910,10 +6932,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>119</v>
@@ -6921,10 +6943,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>119</v>
@@ -6932,10 +6954,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>119</v>
@@ -6943,10 +6965,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>119</v>
@@ -6954,10 +6976,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>119</v>
@@ -6965,10 +6987,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>119</v>
@@ -6976,10 +6998,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>119</v>
@@ -6987,10 +7009,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>119</v>
@@ -6998,10 +7020,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>119</v>
@@ -7009,10 +7031,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>119</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="541">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -1237,18 +1237,30 @@
     <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
   </si>
   <si>
+    <t xml:space="preserve">y(as above with repeatation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum of all subarrays of size k.</t>
   </si>
   <si>
     <t xml:space="preserve">“k” largest element in an array</t>
   </si>
   <si>
+    <t xml:space="preserve">y(this and next similar)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
   </si>
   <si>
+    <t xml:space="preserve">y(this and previous similar)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(1st kElmntsFrmEachRplc 1  rmvdFrmSmArray)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
   </si>
   <si>
@@ -1261,12 +1273,21 @@
     <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Using priority queue)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smallest range in “K” Lists</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(traverse&amp;pushMinheap,untilAtlst1ArrayEnds)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Median in a stream of Integers</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(both balanced min max heap)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if a Binary Tree is Heap</t>
   </si>
   <si>
@@ -1276,10 +1297,16 @@
     <t xml:space="preserve">Convert BST to Min Heap</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(inorder then preorder)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Convert min heap to max heap</t>
   </si>
   <si>
     <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y(done leetcode reorganize string)</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
@@ -1929,11 +1956,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C237" activeCellId="0" sqref="C237"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C354" activeCellId="0" sqref="C354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.76"/>
@@ -4202,7 +4229,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
         <v>268</v>
       </c>
@@ -4279,7 +4306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
         <v>268</v>
       </c>
@@ -4301,7 +4328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
         <v>268</v>
       </c>
@@ -4334,7 +4361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
         <v>268</v>
       </c>
@@ -4367,7 +4394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
         <v>268</v>
       </c>
@@ -4400,7 +4427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
         <v>268</v>
       </c>
@@ -4411,7 +4438,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
         <v>268</v>
       </c>
@@ -5486,7 +5513,7 @@
         <v>393</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,7 +5524,7 @@
         <v>394</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,10 +5532,10 @@
         <v>392</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,10 +5543,10 @@
         <v>392</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>119</v>
+        <v>398</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,10 +5554,10 @@
         <v>392</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>119</v>
+        <v>400</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,10 +5565,10 @@
         <v>392</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>119</v>
+        <v>402</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,10 +5576,10 @@
         <v>392</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,10 +5587,10 @@
         <v>392</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>119</v>
+        <v>404</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,10 +5598,10 @@
         <v>392</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>119</v>
+        <v>405</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,10 +5609,10 @@
         <v>392</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>119</v>
+        <v>407</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,21 +5620,21 @@
         <v>392</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
         <v>392</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>119</v>
+        <v>410</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5615,10 +5642,10 @@
         <v>392</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5626,10 +5653,10 @@
         <v>392</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,10 +5664,10 @@
         <v>392</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>119</v>
+        <v>415</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,10 +5675,10 @@
         <v>392</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,10 +5686,10 @@
         <v>392</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>119</v>
+        <v>418</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,10 +5697,10 @@
         <v>392</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,10 +5716,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>119</v>
@@ -5700,10 +5727,10 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>119</v>
@@ -5711,10 +5738,10 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>119</v>
@@ -5722,10 +5749,10 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>119</v>
@@ -5733,10 +5760,10 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>119</v>
@@ -5744,10 +5771,10 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>119</v>
@@ -5755,10 +5782,10 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>119</v>
@@ -5766,10 +5793,10 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>119</v>
@@ -5777,10 +5804,10 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>119</v>
@@ -5788,10 +5815,10 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>119</v>
@@ -5799,10 +5826,10 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>119</v>
@@ -5810,10 +5837,10 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>119</v>
@@ -5821,10 +5848,10 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>119</v>
@@ -5832,10 +5859,10 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>119</v>
@@ -5843,10 +5870,10 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>119</v>
@@ -5854,10 +5881,10 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>119</v>
@@ -5865,10 +5892,10 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>119</v>
@@ -5876,10 +5903,10 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>119</v>
@@ -5887,10 +5914,10 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>119</v>
@@ -5898,10 +5925,10 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>119</v>
@@ -5909,10 +5936,10 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>119</v>
@@ -5920,10 +5947,10 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>119</v>
@@ -5931,10 +5958,10 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>119</v>
@@ -5942,10 +5969,10 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>119</v>
@@ -5953,10 +5980,10 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>119</v>
@@ -5964,10 +5991,10 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>119</v>
@@ -5975,10 +6002,10 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>119</v>
@@ -5986,10 +6013,10 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>119</v>
@@ -5997,10 +6024,10 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>119</v>
@@ -6008,10 +6035,10 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>119</v>
@@ -6019,10 +6046,10 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>119</v>
@@ -6030,10 +6057,10 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>119</v>
@@ -6041,10 +6068,10 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>119</v>
@@ -6052,10 +6079,10 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>119</v>
@@ -6063,10 +6090,10 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>119</v>
@@ -6074,10 +6101,10 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>119</v>
@@ -6085,10 +6112,10 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>119</v>
@@ -6096,10 +6123,10 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>119</v>
@@ -6107,10 +6134,10 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>119</v>
@@ -6118,10 +6145,10 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>119</v>
@@ -6129,10 +6156,10 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>119</v>
@@ -6140,10 +6167,10 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>119</v>
@@ -6151,10 +6178,10 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>119</v>
@@ -6162,10 +6189,10 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>119</v>
@@ -6184,10 +6211,10 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>119</v>
@@ -6195,10 +6222,10 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>119</v>
@@ -6206,10 +6233,10 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>119</v>
@@ -6217,7 +6244,7 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>122</v>
@@ -6228,10 +6255,10 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>119</v>
@@ -6239,10 +6266,10 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>119</v>
@@ -6261,10 +6288,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>119</v>
@@ -6272,10 +6299,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>119</v>
@@ -6283,10 +6310,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>119</v>
@@ -6294,10 +6321,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>119</v>
@@ -6305,10 +6332,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>119</v>
@@ -6316,10 +6343,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>119</v>
@@ -6327,10 +6354,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>119</v>
@@ -6338,7 +6365,7 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>341</v>
@@ -6349,10 +6376,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>119</v>
@@ -6360,10 +6387,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>119</v>
@@ -6371,10 +6398,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>119</v>
@@ -6382,10 +6409,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>119</v>
@@ -6393,10 +6420,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>119</v>
@@ -6404,10 +6431,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>119</v>
@@ -6415,10 +6442,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>119</v>
@@ -6426,10 +6453,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>119</v>
@@ -6437,10 +6464,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>119</v>
@@ -6448,10 +6475,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>119</v>
@@ -6459,10 +6486,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>119</v>
@@ -6470,10 +6497,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>119</v>
@@ -6481,10 +6508,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>119</v>
@@ -6492,10 +6519,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>119</v>
@@ -6503,10 +6530,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>119</v>
@@ -6514,10 +6541,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>119</v>
@@ -6525,10 +6552,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>119</v>
@@ -6536,10 +6563,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>119</v>
@@ -6547,10 +6574,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>119</v>
@@ -6558,10 +6585,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>119</v>
@@ -6569,10 +6596,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>119</v>
@@ -6580,10 +6607,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>119</v>
@@ -6591,10 +6618,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>119</v>
@@ -6602,10 +6629,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>119</v>
@@ -6613,10 +6640,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>119</v>
@@ -6624,10 +6651,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>119</v>
@@ -6635,10 +6662,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>119</v>
@@ -6646,10 +6673,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>119</v>
@@ -6657,10 +6684,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>119</v>
@@ -6668,10 +6695,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>119</v>
@@ -6679,10 +6706,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>119</v>
@@ -6690,10 +6717,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>119</v>
@@ -6701,10 +6728,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>119</v>
@@ -6712,10 +6739,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>119</v>
@@ -6723,10 +6750,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>119</v>
@@ -6734,10 +6761,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>119</v>
@@ -6745,10 +6772,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>119</v>
@@ -6756,10 +6783,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>119</v>
@@ -6767,10 +6794,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>119</v>
@@ -6778,10 +6805,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>119</v>
@@ -6789,10 +6816,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>119</v>
@@ -6800,10 +6827,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>119</v>
@@ -6811,10 +6838,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>119</v>
@@ -6822,10 +6849,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>119</v>
@@ -6833,10 +6860,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>119</v>
@@ -6844,10 +6871,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>119</v>
@@ -6855,10 +6882,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>119</v>
@@ -6866,10 +6893,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>119</v>
@@ -6877,10 +6904,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>119</v>
@@ -6888,10 +6915,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>119</v>
@@ -6899,10 +6926,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>119</v>
@@ -6910,10 +6937,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>119</v>
@@ -6932,10 +6959,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>119</v>
@@ -6943,10 +6970,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>119</v>
@@ -6954,10 +6981,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>119</v>
@@ -6965,10 +6992,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>119</v>
@@ -6976,10 +7003,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>119</v>
@@ -6987,10 +7014,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>119</v>
@@ -6998,10 +7025,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>119</v>
@@ -7009,10 +7036,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>119</v>
@@ -7020,10 +7047,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>119</v>
@@ -7031,10 +7058,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>119</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="574">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -1327,33 +1327,57 @@
     <t xml:space="preserve">Detect Cycle in Directed Graph using BFS/DFS Algo </t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Recall DFS prcedure, BFS Kahn topo sort)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DFS similarPrevious,BFS sameAsBFSalgo)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Search in a Maze</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum Step by Knight</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(BFS and DP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">flood fill algo</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Recursion or BFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clone a graph</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DFS/BFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Making wired Connections</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(BFS/DFS or Union Find)</t>
+  </si>
+  <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
+    <t xml:space="preserve">YES(BFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
+    <t xml:space="preserve">y(topology sorting Kahn’s Algo)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
   </si>
   <si>
@@ -1363,18 +1387,33 @@
     <t xml:space="preserve">Find the no. of Isalnds</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(BFS/DFS or Union Find)bfs/dfs faster rn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(make adj list and topological sort)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Edge based)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement Prim’s Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(node based)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Kirchhoff’s Theorem)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
   </si>
   <si>
@@ -1384,64 +1423,124 @@
     <t xml:space="preserve">Travelling Salesman Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(permutation or DP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Graph ColouringProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(recall technique)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Snake and Ladders Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">y(BFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find bridge in a graph</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(tough, algo recall)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DFS,ReverseGraph,DFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Graph Coloring)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Detect Negative cycle in a graph</t>
   </si>
   <si>
     <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(topological order)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Journey to the Moon</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(union find set/DFS to find components)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cheapest Flights Within K Stops</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Modified Bellman Ford)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oliver and the Game</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DFS and inTime outTime)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water Jug problem using BFS</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(3 possible neighbours)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DFS and Backtracking)</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-ColouringProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(using recursion)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(modify graph with reverse edge cost 1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see method both directed &amp; indirected)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vertex Cover Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(approximate method not actual answer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chinese Postman or Route Inspection</t>
   </si>
   <si>
+    <t xml:space="preserve">INCOMPLETE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(count triplet or trace(A^3)/6)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(recursion give from maxCred to maxDeb)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two Clique Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(complement and bipartite)</t>
   </si>
   <si>
     <t xml:space="preserve">Trie</t>
@@ -1956,11 +2055,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C354" activeCellId="0" sqref="C354"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A371" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C400" activeCellId="0" sqref="C400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.76"/>
@@ -4856,15 +4955,15 @@
       <c r="B274" s="10"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>119</v>
+      <c r="C275" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5626,7 +5725,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
         <v>392</v>
       </c>
@@ -5721,8 +5820,8 @@
       <c r="B356" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C356" s="6" t="s">
-        <v>119</v>
+      <c r="C356" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5732,96 +5831,96 @@
       <c r="B357" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C357" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C358" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C359" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>426</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>431</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+      <c r="C364" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>119</v>
+        <v>435</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,153 +5928,153 @@
         <v>420</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>444</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>452</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>454</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C379" s="6" t="s">
-        <v>119</v>
+        <v>458</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,43 +6082,43 @@
         <v>420</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>462</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>464</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C383" s="6" t="s">
-        <v>119</v>
+        <v>466</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,65 +6126,65 @@
         <v>420</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>469</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C386" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>473</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C388" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>475</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C389" s="6" t="s">
-        <v>119</v>
+        <v>477</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,109 +6192,109 @@
         <v>420</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C391" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C392" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>481</v>
+      </c>
+      <c r="C392" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C393" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>483</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C394" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>485</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C395" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>487</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C396" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>489</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>491</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C398" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>493</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C399" s="6" t="s">
-        <v>119</v>
+        <v>495</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,10 +6310,10 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>119</v>
@@ -6222,10 +6321,10 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>119</v>
@@ -6233,10 +6332,10 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>119</v>
@@ -6244,7 +6343,7 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>122</v>
@@ -6255,10 +6354,10 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>119</v>
@@ -6266,10 +6365,10 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>119</v>
@@ -6288,10 +6387,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>119</v>
@@ -6299,10 +6398,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>119</v>
@@ -6310,10 +6409,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>119</v>
@@ -6321,10 +6420,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>119</v>
@@ -6332,10 +6431,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>119</v>
@@ -6343,10 +6442,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>119</v>
@@ -6354,10 +6453,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>119</v>
@@ -6365,7 +6464,7 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>341</v>
@@ -6376,10 +6475,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>119</v>
@@ -6387,10 +6486,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>119</v>
@@ -6398,10 +6497,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>119</v>
@@ -6409,10 +6508,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>119</v>
@@ -6420,10 +6519,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>119</v>
@@ -6431,10 +6530,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>119</v>
@@ -6442,10 +6541,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>119</v>
@@ -6453,10 +6552,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>119</v>
@@ -6464,10 +6563,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>119</v>
@@ -6475,10 +6574,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>119</v>
@@ -6486,10 +6585,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>119</v>
@@ -6497,10 +6596,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>119</v>
@@ -6508,10 +6607,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>119</v>
@@ -6519,10 +6618,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>119</v>
@@ -6530,10 +6629,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>119</v>
@@ -6541,10 +6640,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>119</v>
@@ -6552,10 +6651,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>119</v>
@@ -6563,10 +6662,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>119</v>
@@ -6574,10 +6673,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>119</v>
@@ -6585,10 +6684,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>119</v>
@@ -6596,10 +6695,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>119</v>
@@ -6607,10 +6706,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>119</v>
@@ -6618,10 +6717,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>119</v>
@@ -6629,10 +6728,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>119</v>
@@ -6640,10 +6739,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>119</v>
@@ -6651,10 +6750,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>119</v>
@@ -6662,10 +6761,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>119</v>
@@ -6673,10 +6772,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>119</v>
@@ -6684,10 +6783,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>119</v>
@@ -6695,10 +6794,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>119</v>
@@ -6706,10 +6805,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>119</v>
@@ -6717,10 +6816,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>119</v>
@@ -6728,10 +6827,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>119</v>
@@ -6739,10 +6838,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>119</v>
@@ -6750,10 +6849,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>119</v>
@@ -6761,10 +6860,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>119</v>
@@ -6772,10 +6871,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>119</v>
@@ -6783,10 +6882,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>119</v>
@@ -6794,10 +6893,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>119</v>
@@ -6805,10 +6904,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>119</v>
@@ -6816,10 +6915,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>119</v>
@@ -6827,10 +6926,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>119</v>
@@ -6838,10 +6937,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>119</v>
@@ -6849,10 +6948,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>119</v>
@@ -6860,10 +6959,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>119</v>
@@ -6871,10 +6970,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>119</v>
@@ -6882,10 +6981,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>119</v>
@@ -6893,10 +6992,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>119</v>
@@ -6904,10 +7003,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>119</v>
@@ -6915,10 +7014,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>119</v>
@@ -6926,10 +7025,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>119</v>
@@ -6937,10 +7036,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>119</v>
@@ -6959,10 +7058,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>119</v>
@@ -6970,10 +7069,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>119</v>
@@ -6981,10 +7080,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>119</v>
@@ -6992,10 +7091,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>119</v>
@@ -7003,10 +7102,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>119</v>
@@ -7014,10 +7113,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>119</v>
@@ -7025,10 +7124,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>119</v>
@@ -7036,10 +7135,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>119</v>
@@ -7047,10 +7146,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>119</v>
@@ -7058,10 +7157,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>119</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="580">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -1549,16 +1549,34 @@
     <t xml:space="preserve">Construct a trie from scratch</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(insertion,searching,deleting)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(frequency)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(trie+memoization)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(sort &amp; insert into trie store word in leaf vector)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement a Phone Directory</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(check while insertion)</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic Programming</t>
@@ -2055,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A371" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C400" activeCellId="0" sqref="C400"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A393" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C408" activeCellId="0" sqref="C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6308,15 +6326,15 @@
       <c r="B401" s="10"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
         <v>497</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C402" s="6" t="s">
-        <v>119</v>
+      <c r="C402" s="9" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6324,10 +6342,10 @@
         <v>497</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>119</v>
+        <v>501</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,10 +6353,10 @@
         <v>497</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>119</v>
+        <v>503</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,18 +6367,18 @@
         <v>122</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
         <v>497</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>119</v>
+        <v>505</v>
+      </c>
+      <c r="C406" s="9" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,10 +6386,10 @@
         <v>497</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>119</v>
+        <v>508</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,10 +6405,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>119</v>
@@ -6398,10 +6416,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>119</v>
@@ -6409,10 +6427,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>119</v>
@@ -6420,10 +6438,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>119</v>
@@ -6431,10 +6449,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>119</v>
@@ -6442,10 +6460,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>119</v>
@@ -6453,10 +6471,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>119</v>
@@ -6464,7 +6482,7 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>341</v>
@@ -6475,10 +6493,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>119</v>
@@ -6486,10 +6504,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>119</v>
@@ -6497,10 +6515,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>119</v>
@@ -6508,10 +6526,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>119</v>
@@ -6519,10 +6537,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>119</v>
@@ -6530,10 +6548,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>119</v>
@@ -6541,10 +6559,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>119</v>
@@ -6552,10 +6570,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>119</v>
@@ -6563,10 +6581,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>119</v>
@@ -6574,10 +6592,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>119</v>
@@ -6585,10 +6603,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>119</v>
@@ -6596,10 +6614,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>119</v>
@@ -6607,10 +6625,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>119</v>
@@ -6618,10 +6636,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>119</v>
@@ -6629,10 +6647,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>119</v>
@@ -6640,10 +6658,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>119</v>
@@ -6651,10 +6669,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>119</v>
@@ -6662,10 +6680,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>119</v>
@@ -6673,10 +6691,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>119</v>
@@ -6684,10 +6702,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>119</v>
@@ -6695,10 +6713,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>119</v>
@@ -6706,10 +6724,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>119</v>
@@ -6717,10 +6735,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>119</v>
@@ -6728,10 +6746,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>119</v>
@@ -6739,10 +6757,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>119</v>
@@ -6750,10 +6768,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>119</v>
@@ -6761,10 +6779,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>119</v>
@@ -6772,10 +6790,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>119</v>
@@ -6783,10 +6801,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>119</v>
@@ -6794,10 +6812,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>119</v>
@@ -6805,10 +6823,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>119</v>
@@ -6816,10 +6834,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>119</v>
@@ -6827,10 +6845,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>119</v>
@@ -6838,10 +6856,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>119</v>
@@ -6849,10 +6867,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>119</v>
@@ -6860,10 +6878,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>119</v>
@@ -6871,10 +6889,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>119</v>
@@ -6882,10 +6900,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>119</v>
@@ -6893,10 +6911,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>119</v>
@@ -6904,10 +6922,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>119</v>
@@ -6915,10 +6933,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>119</v>
@@ -6926,10 +6944,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>119</v>
@@ -6937,10 +6955,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>119</v>
@@ -6948,10 +6966,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>119</v>
@@ -6959,10 +6977,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>119</v>
@@ -6970,10 +6988,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>119</v>
@@ -6981,10 +6999,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>119</v>
@@ -6992,10 +7010,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>119</v>
@@ -7003,10 +7021,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>119</v>
@@ -7014,10 +7032,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>119</v>
@@ -7025,10 +7043,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>119</v>
@@ -7036,10 +7054,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>119</v>
@@ -7058,10 +7076,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>119</v>
@@ -7069,10 +7087,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>119</v>
@@ -7080,10 +7098,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>119</v>
@@ -7091,10 +7109,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>119</v>
@@ -7102,10 +7120,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>119</v>
@@ -7113,10 +7131,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>119</v>
@@ -7124,10 +7142,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>119</v>
@@ -7135,10 +7153,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>119</v>
@@ -7146,10 +7164,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>119</v>
@@ -7157,10 +7175,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>119</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="584">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -1768,19 +1768,31 @@
     <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(hashmap to store frequency of each number)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
   </si>
   <si>
     <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(See article)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Program to find whether a no is power of two</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(x and (!(x&amp;(x-1))))</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find position of the only set bit</t>
   </si>
   <si>
     <t xml:space="preserve">Copy set bits in a range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(bit masking then bitwise and then bitwise or)</t>
   </si>
   <si>
     <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
@@ -2073,8 +2085,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A393" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C408" activeCellId="0" sqref="C408"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A462" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C482" activeCellId="0" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7082,7 +7094,7 @@
         <v>570</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,7 +7105,7 @@
         <v>571</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>119</v>
+        <v>572</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,87 +7113,87 @@
         <v>569</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
         <v>569</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C475" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>574</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
         <v>569</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="C476" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>576</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
         <v>569</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="C477" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>578</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
         <v>569</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>579</v>
+      </c>
+      <c r="C478" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
         <v>569</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C479" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
         <v>569</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="C480" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>582</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
         <v>569</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C481" s="6" t="s">
-        <v>119</v>
+        <v>583</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="591">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -1060,6 +1060,9 @@
     <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(backtracking/backtracking+bitmasking)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Word Break Problem using Backtracking</t>
   </si>
   <si>
@@ -1081,6 +1084,9 @@
     <t xml:space="preserve">The Knight’s tour problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(similar to BFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tug of War</t>
   </si>
   <si>
@@ -1090,12 +1096,21 @@
     <t xml:space="preserve">Combinational Sum</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(coin change sum with backtracking)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(index tricky in efficient method)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see recursion tree)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
   </si>
   <si>
@@ -1108,9 +1123,15 @@
     <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(mathematical)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DP concept improvisation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stacks &amp; Queues</t>
   </si>
   <si>
@@ -1498,7 +1519,7 @@
     <t xml:space="preserve">M-ColouringProblem</t>
   </si>
   <si>
-    <t xml:space="preserve">YES(using recursion)</t>
+    <t xml:space="preserve">YES(using recursion &amp; backtracking)</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
@@ -2085,15 +2106,15 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A462" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C482" activeCellId="0" sqref="C482"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A275" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C294" activeCellId="0" sqref="C294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.51"/>
   </cols>
   <sheetData>
@@ -4996,15 +5017,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>119</v>
+      <c r="C276" s="9" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,54 +5033,54 @@
         <v>333</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>119</v>
+        <v>341</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,43 +5088,43 @@
         <v>333</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>119</v>
+        <v>346</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,21 +5132,21 @@
         <v>333</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>119</v>
+        <v>349</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,10 +5154,10 @@
         <v>333</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,10 +5165,10 @@
         <v>333</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,10 +5176,10 @@
         <v>333</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,32 +5187,32 @@
         <v>333</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>356</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>119</v>
+        <v>358</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,10 +5228,10 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>119</v>
@@ -5218,10 +5239,10 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>119</v>
@@ -5229,10 +5250,10 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>119</v>
@@ -5240,10 +5261,10 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>119</v>
@@ -5251,10 +5272,10 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>119</v>
@@ -5262,10 +5283,10 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>119</v>
@@ -5273,10 +5294,10 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>119</v>
@@ -5284,10 +5305,10 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>119</v>
@@ -5295,10 +5316,10 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>119</v>
@@ -5306,10 +5327,10 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>119</v>
@@ -5317,10 +5338,10 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>119</v>
@@ -5328,10 +5349,10 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>119</v>
@@ -5339,10 +5360,10 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>119</v>
@@ -5350,10 +5371,10 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>119</v>
@@ -5361,10 +5382,10 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>119</v>
@@ -5372,10 +5393,10 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>119</v>
@@ -5383,10 +5404,10 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>119</v>
@@ -5394,10 +5415,10 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>119</v>
@@ -5405,10 +5426,10 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>119</v>
@@ -5416,10 +5437,10 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>119</v>
@@ -5427,10 +5448,10 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>119</v>
@@ -5438,10 +5459,10 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>119</v>
@@ -5449,10 +5470,10 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>119</v>
@@ -5460,10 +5481,10 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>119</v>
@@ -5471,10 +5492,10 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>119</v>
@@ -5482,10 +5503,10 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>119</v>
@@ -5493,10 +5514,10 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>119</v>
@@ -5504,10 +5525,10 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>119</v>
@@ -5515,10 +5536,10 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>119</v>
@@ -5526,10 +5547,10 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>119</v>
@@ -5537,10 +5558,10 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>119</v>
@@ -5548,10 +5569,10 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>119</v>
@@ -5559,10 +5580,10 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>119</v>
@@ -5570,10 +5591,10 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>119</v>
@@ -5581,10 +5602,10 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>119</v>
@@ -5592,10 +5613,10 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>119</v>
@@ -5603,10 +5624,10 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>119</v>
@@ -5614,10 +5635,10 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>119</v>
@@ -5636,10 +5657,10 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>10</v>
@@ -5647,21 +5668,21 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>8</v>
@@ -5669,43 +5690,43 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>8</v>
@@ -5713,10 +5734,10 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>10</v>
@@ -5724,10 +5745,10 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C344" s="9" t="s">
         <v>10</v>
@@ -5735,43 +5756,43 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>10</v>
@@ -5779,10 +5800,10 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>8</v>
@@ -5790,21 +5811,21 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>8</v>
@@ -5812,21 +5833,21 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>10</v>
@@ -5845,10 +5866,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C356" s="9" t="s">
         <v>10</v>
@@ -5856,10 +5877,10 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>10</v>
@@ -5867,10 +5888,10 @@
     </row>
     <row r="358" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C358" s="9" t="s">
         <v>10</v>
@@ -5878,32 +5899,32 @@
     </row>
     <row r="359" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>264</v>
@@ -5911,65 +5932,65 @@
     </row>
     <row r="362" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>10</v>
@@ -5977,109 +5998,109 @@
     </row>
     <row r="368" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>128</v>
@@ -6087,76 +6108,76 @@
     </row>
     <row r="378" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>8</v>
@@ -6164,65 +6185,65 @@
     </row>
     <row r="385" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>8</v>
@@ -6230,101 +6251,101 @@
     </row>
     <row r="391" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C392" s="9" t="s">
-        <v>482</v>
+        <v>488</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,68 +6361,68 @@
     </row>
     <row r="402" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,10 +6438,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>119</v>
@@ -6428,10 +6449,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>119</v>
@@ -6439,10 +6460,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>119</v>
@@ -6450,10 +6471,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>119</v>
@@ -6461,10 +6482,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>119</v>
@@ -6472,10 +6493,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>119</v>
@@ -6483,10 +6504,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>119</v>
@@ -6494,10 +6515,10 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>119</v>
@@ -6505,10 +6526,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>119</v>
@@ -6516,10 +6537,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>119</v>
@@ -6527,10 +6548,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>119</v>
@@ -6538,10 +6559,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>119</v>
@@ -6549,10 +6570,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>119</v>
@@ -6560,10 +6581,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>119</v>
@@ -6571,10 +6592,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>119</v>
@@ -6582,10 +6603,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>119</v>
@@ -6593,10 +6614,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>119</v>
@@ -6604,10 +6625,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>119</v>
@@ -6615,10 +6636,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>119</v>
@@ -6626,10 +6647,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>119</v>
@@ -6637,10 +6658,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>119</v>
@@ -6648,10 +6669,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>119</v>
@@ -6659,10 +6680,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>119</v>
@@ -6670,10 +6691,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>119</v>
@@ -6681,10 +6702,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>119</v>
@@ -6692,10 +6713,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>119</v>
@@ -6703,10 +6724,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>119</v>
@@ -6714,10 +6735,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>119</v>
@@ -6725,10 +6746,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>119</v>
@@ -6736,10 +6757,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>119</v>
@@ -6747,10 +6768,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>119</v>
@@ -6758,10 +6779,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>119</v>
@@ -6769,10 +6790,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>119</v>
@@ -6780,10 +6801,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>119</v>
@@ -6791,10 +6812,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>119</v>
@@ -6802,10 +6823,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>119</v>
@@ -6813,10 +6834,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>119</v>
@@ -6824,10 +6845,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>119</v>
@@ -6835,10 +6856,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>119</v>
@@ -6846,10 +6867,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>119</v>
@@ -6857,10 +6878,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>119</v>
@@ -6868,10 +6889,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>119</v>
@@ -6879,10 +6900,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>119</v>
@@ -6890,10 +6911,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>119</v>
@@ -6901,10 +6922,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>119</v>
@@ -6912,10 +6933,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>119</v>
@@ -6923,10 +6944,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>119</v>
@@ -6934,10 +6955,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>119</v>
@@ -6945,10 +6966,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>119</v>
@@ -6956,10 +6977,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>119</v>
@@ -6967,10 +6988,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>119</v>
@@ -6978,10 +6999,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>119</v>
@@ -6989,10 +7010,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>119</v>
@@ -7000,10 +7021,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>119</v>
@@ -7011,10 +7032,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>119</v>
@@ -7022,10 +7043,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>119</v>
@@ -7033,10 +7054,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>119</v>
@@ -7044,10 +7065,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>119</v>
@@ -7055,10 +7076,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>119</v>
@@ -7066,10 +7087,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>119</v>
@@ -7088,10 +7109,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>8</v>
@@ -7099,21 +7120,21 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>8</v>
@@ -7121,32 +7142,32 @@
     </row>
     <row r="475" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C477" s="9" t="s">
         <v>10</v>
@@ -7154,21 +7175,21 @@
     </row>
     <row r="478" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C479" s="9" t="s">
         <v>10</v>
@@ -7176,10 +7197,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C480" s="9" t="s">
         <v>10</v>
@@ -7187,10 +7208,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C481" s="9" t="s">
         <v>10</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="626">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -307,49 +307,52 @@
     <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(VVVV IMP already done in dp )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(Dynamic Programming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(Recursion or DP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMP Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES(Dynamic Programming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES(Recursion or DP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
   </si>
   <si>
     <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
@@ -1612,21 +1615,36 @@
     <t xml:space="preserve">Binomial CoefficientProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see subproblem formulae of nCr)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Permutation CoefficientProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see subproblem formulae of nPr)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Program for nth Catalan Number</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see catalan series formation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matrix Chain Multiplication </t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see the indexing part)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit Distance</t>
   </si>
   <si>
     <t xml:space="preserve">Friends Pairing Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">y(see formulae)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gold Mine Problem</t>
   </si>
   <si>
@@ -1636,6 +1654,9 @@
     <t xml:space="preserve">Painting the Fenceproblem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see formulae)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximize The Cut Segments</t>
   </si>
   <si>
@@ -1648,21 +1669,36 @@
     <t xml:space="preserve">Longest Increasing Subsequence</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(using LCS concept OR binary search to find length)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Space Optimized Solution of LCS</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see 0/1 alternating procedure of indexing)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(using extended LCS on three arrays)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(LIS for sum instead of length)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count all subsequences having product less than K</t>
   </si>
   <si>
     <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(LIS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
   </si>
   <si>
@@ -1672,13 +1708,19 @@
     <t xml:space="preserve">Maximum Length Chain of Pairs</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(LIS after sorting)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(See algorithm)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
   </si>
   <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
+    <t xml:space="preserve">Max Cost PathProblem</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
@@ -1687,18 +1729,27 @@
     <t xml:space="preserve">Minimum number of jumps to reach end</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(See O(n) solution carefully)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DP or Binary Search)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest Common Substring</t>
   </si>
   <si>
     <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
   </si>
   <si>
+    <t xml:space="preserve">y(count ways of coin change)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
   </si>
   <si>
@@ -1708,12 +1759,18 @@
     <t xml:space="preserve">Smallest sum contiguous subarray</t>
   </si>
   <si>
+    <t xml:space="preserve">y(same as above just find min instead)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
   </si>
   <si>
     <t xml:space="preserve">Word Break Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">y(used trie for dictionary)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Largest Independent Set Problem</t>
   </si>
   <si>
@@ -1726,15 +1783,27 @@
     <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(non distinct part is messy just keep in mind)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest Palindromic Substring</t>
   </si>
   <si>
+    <t xml:space="preserve">y(similar as above)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longest alternating subsequence</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see O(n) approach similar to O(n^2)(LIS))</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weighted Job Scheduling</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(LIS method also used check it something’s faulty)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coin game winner where every player has three choices</t>
   </si>
   <si>
@@ -1744,37 +1813,73 @@
     <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Hill-Valley or DP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimal Strategy for a Game</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(See decision making procedure)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimal Binary Search Tree</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(MCM type)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palindrome PartitioningProblem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(MCM type for n^3 sol, palindrome cache for n^2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Word Wrap Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(VVVV IMP )</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(simple DFS with memoization)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boolean Parenthesization Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(MCM)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(summing rows finding longest 0 sum length)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Same as above consider 0 as -1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(summing rows and kadane)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(BottomUp approach)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(3 pointers and recursion+memoization)</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Length of Pair Chain</t>
@@ -2106,15 +2211,15 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A275" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C294" activeCellId="0" sqref="C294"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C406" activeCellId="0" sqref="C406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.51"/>
   </cols>
   <sheetData>
@@ -2813,7 +2918,7 @@
       <c r="B68" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2946,7 +3051,7 @@
         <v>109</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,7 +3059,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>8</v>
@@ -2965,10 +3070,10 @@
         <v>77</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,7 +3081,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>8</v>
@@ -2987,7 +3092,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>8</v>
@@ -2998,7 +3103,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>10</v>
@@ -3009,7 +3114,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -3020,10 +3125,10 @@
         <v>77</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,10 +3136,10 @@
         <v>77</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3147,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -3053,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>10</v>
@@ -3064,10 +3169,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,10 +3180,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,7 +3191,7 @@
         <v>77</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>10</v>
@@ -3097,10 +3202,10 @@
         <v>77</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,10 +3213,10 @@
         <v>77</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,10 +3224,10 @@
         <v>77</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +3235,10 @@
         <v>77</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3246,7 @@
         <v>77</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -3156,10 +3261,10 @@
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>8</v>
@@ -3167,10 +3272,10 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>8</v>
@@ -3178,10 +3283,10 @@
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>8</v>
@@ -3189,10 +3294,10 @@
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>8</v>
@@ -3200,10 +3305,10 @@
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>8</v>
@@ -3211,21 +3316,21 @@
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>8</v>
@@ -3233,10 +3338,10 @@
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>8</v>
@@ -3244,10 +3349,10 @@
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>8</v>
@@ -3255,10 +3360,10 @@
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>8</v>
@@ -3266,10 +3371,10 @@
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>8</v>
@@ -3277,10 +3382,10 @@
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>8</v>
@@ -3288,10 +3393,10 @@
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -3299,10 +3404,10 @@
     </row>
     <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -3310,244 +3415,244 @@
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,21 +3664,21 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>0</v>
@@ -3581,21 +3686,21 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>8</v>
@@ -3603,10 +3708,10 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>8</v>
@@ -3614,10 +3719,10 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>8</v>
@@ -3625,10 +3730,10 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>10</v>
@@ -3636,10 +3741,10 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>8</v>
@@ -3647,65 +3752,65 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B148" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>35</v>
@@ -3713,21 +3818,21 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>10</v>
@@ -3735,10 +3840,10 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>8</v>
@@ -3746,10 +3851,10 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>8</v>
@@ -3757,10 +3862,10 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>8</v>
@@ -3768,10 +3873,10 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -3779,10 +3884,10 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
@@ -3790,32 +3895,32 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>8</v>
@@ -3823,10 +3928,10 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -3834,43 +3939,43 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B165" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>8</v>
@@ -3878,10 +3983,10 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>10</v>
@@ -3889,21 +3994,21 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>8</v>
@@ -3911,21 +4016,21 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>8</v>
@@ -3933,24 +4038,24 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,10 +4067,10 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>10</v>
@@ -3973,10 +4078,10 @@
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>8</v>
@@ -3984,10 +4089,10 @@
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>8</v>
@@ -3995,10 +4100,10 @@
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>10</v>
@@ -4006,10 +4111,10 @@
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>10</v>
@@ -4017,10 +4122,10 @@
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>10</v>
@@ -4028,10 +4133,10 @@
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>10</v>
@@ -4039,10 +4144,10 @@
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>10</v>
@@ -4050,10 +4155,10 @@
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>10</v>
@@ -4061,21 +4166,21 @@
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>10</v>
@@ -4083,32 +4188,32 @@
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>8</v>
@@ -4116,10 +4221,10 @@
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>10</v>
@@ -4127,10 +4232,10 @@
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>10</v>
@@ -4138,10 +4243,10 @@
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>10</v>
@@ -4149,10 +4254,10 @@
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>10</v>
@@ -4160,10 +4265,10 @@
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>8</v>
@@ -4171,32 +4276,32 @@
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>8</v>
@@ -4204,10 +4309,10 @@
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -4215,32 +4320,32 @@
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>8</v>
@@ -4248,10 +4353,10 @@
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>10</v>
@@ -4259,10 +4364,10 @@
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>8</v>
@@ -4270,21 +4375,21 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -4292,10 +4397,10 @@
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>10</v>
@@ -4303,10 +4408,10 @@
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>8</v>
@@ -4314,32 +4419,32 @@
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>10</v>
@@ -4359,32 +4464,32 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>8</v>
@@ -4392,21 +4497,21 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>10</v>
@@ -4414,10 +4519,10 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>8</v>
@@ -4425,10 +4530,10 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>8</v>
@@ -4436,21 +4541,21 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>10</v>
@@ -4458,10 +4563,10 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>10</v>
@@ -4469,10 +4574,10 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>10</v>
@@ -4480,10 +4585,10 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>10</v>
@@ -4491,21 +4596,21 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>8</v>
@@ -4513,21 +4618,21 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>10</v>
@@ -4535,10 +4640,10 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>10</v>
@@ -4546,10 +4651,10 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>10</v>
@@ -4557,10 +4662,10 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>8</v>
@@ -4568,10 +4673,10 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>10</v>
@@ -4579,21 +4684,21 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>10</v>
@@ -4612,387 +4717,387 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,78 +5111,78 @@
       <c r="B274" s="10"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B275" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C275" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="B276" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>10</v>
@@ -5085,43 +5190,43 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>10</v>
@@ -5129,43 +5234,43 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>10</v>
@@ -5173,10 +5278,10 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>8</v>
@@ -5184,35 +5289,35 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5228,420 +5333,420 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,10 +5762,10 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>10</v>
@@ -5668,21 +5773,21 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>8</v>
@@ -5690,43 +5795,43 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>8</v>
@@ -5734,10 +5839,10 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>10</v>
@@ -5745,10 +5850,10 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C344" s="9" t="s">
         <v>10</v>
@@ -5756,43 +5861,43 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>10</v>
@@ -5800,10 +5905,10 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>8</v>
@@ -5811,21 +5916,21 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>8</v>
@@ -5833,21 +5938,21 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>10</v>
@@ -5866,10 +5971,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C356" s="9" t="s">
         <v>10</v>
@@ -5877,475 +5982,475 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C358" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B369" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C369" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B374" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C376" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C374" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B375" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C375" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B376" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C376" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,70 +6464,70 @@
       <c r="B401" s="10"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,662 +6543,662 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>119</v>
+        <v>521</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>119</v>
+        <v>523</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>119</v>
+        <v>525</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>119</v>
+        <v>527</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>119</v>
+        <v>528</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>119</v>
+        <v>530</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>119</v>
+        <v>534</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C425" s="6" t="s">
-        <v>119</v>
+        <v>538</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>119</v>
+        <v>541</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>119</v>
+        <v>543</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="C428" s="6" t="s">
-        <v>119</v>
+        <v>544</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C429" s="6" t="s">
-        <v>119</v>
+        <v>546</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C430" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>547</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C431" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>549</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C432" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>550</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C434" s="6" t="s">
-        <v>119</v>
+        <v>553</v>
+      </c>
+      <c r="C434" s="9" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>119</v>
+        <v>558</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C440" s="6" t="s">
-        <v>119</v>
+        <v>561</v>
+      </c>
+      <c r="C440" s="9" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C443" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>566</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C444" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>567</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C448" s="6" t="s">
-        <v>119</v>
+        <v>573</v>
+      </c>
+      <c r="C448" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>119</v>
+        <v>576</v>
+      </c>
+      <c r="C451" s="9" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="C453" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>580</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="C454" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>582</v>
+      </c>
+      <c r="C454" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>584</v>
+      </c>
+      <c r="C455" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>585</v>
+      </c>
+      <c r="C456" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="C457" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>586</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C458" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>588</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C459" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>590</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C460" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>592</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C461" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>594</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C462" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>596</v>
+      </c>
+      <c r="C462" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C463" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>598</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C464" s="6" t="s">
-        <v>119</v>
+        <v>600</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="C466" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C467" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>606</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="C468" s="6" t="s">
-        <v>119</v>
+        <v>608</v>
+      </c>
+      <c r="C468" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>119</v>
+        <v>548</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7109,10 +7214,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>8</v>
@@ -7120,98 +7225,98 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="C477" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="C479" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="C480" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="19.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="C481" s="9" t="s">
         <v>10</v>
@@ -7620,7 +7725,7 @@
     <hyperlink ref="B433" r:id="rId399" display="Maximum Length Chain of Pairs"/>
     <hyperlink ref="B434" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
     <hyperlink ref="B435" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId402" display="Min Cost PathProblem"/>
+    <hyperlink ref="B436" r:id="rId402" display="Max Cost PathProblem"/>
     <hyperlink ref="B437" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
     <hyperlink ref="B438" r:id="rId404" display="Minimum number of jumps to reach end"/>
     <hyperlink ref="B439" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="651">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -1147,12 +1147,21 @@
     <t xml:space="preserve">Implement 2 stack in an array</t>
   </si>
   <si>
+    <t xml:space="preserve">y(start from both ends)</t>
+  </si>
+  <si>
     <t xml:space="preserve">find the middle element of a stack</t>
   </si>
   <si>
+    <t xml:space="preserve">y(doubly linked list)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement "N" stacks in an Array</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(using next and top arrays)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
   </si>
   <si>
@@ -1162,24 +1171,45 @@
     <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(diff=2e-min, e=2diff-min)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the next Greater element</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(stack to maintain increasing order from last)</t>
+  </si>
+  <si>
     <t xml:space="preserve">The celebrity Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(elimination of all person until one potential)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arithmetic Expression evaluation</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(convert to postfix then evaluate)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evaluation of Postfix expression</t>
   </si>
   <si>
+    <t xml:space="preserve">y(see above)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(recursion stack)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reverse a stack using recursion</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(as using above function)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sort a Stack using recursion</t>
   </si>
   <si>
@@ -1189,69 +1219,120 @@
     <t xml:space="preserve">Largest rectangular Area in Histogram</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(use concept of nxt grtr element, see 3 method)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Length of the Longest Valid Substring</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see strategy of using stack)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expression contains redundant bracket or not</t>
   </si>
   <si>
+    <t xml:space="preserve">y(true when top is ‘(‘ when ‘)’ is encountered)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement Stack using Queue</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Stack using Deque</t>
   </si>
   <si>
+    <t xml:space="preserve">y(if interested see inheritance used when not using stl)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
+    <t xml:space="preserve">y(same as stack using 2 queues)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement "n" queue in an array</t>
   </si>
   <si>
+    <t xml:space="preserve">y(similar to n stack in single array)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement a Circular queue</t>
   </si>
   <si>
+    <t xml:space="preserve">y(go through once)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LRU Cache Implementationa</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Doubly linked list and hashmap)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reverse a Queue using recursion</t>
   </si>
   <si>
     <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
   </si>
   <si>
+    <t xml:space="preserve">y(stack stores first k,enqueue and arrange rest)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interleave the first half of the queue with second half</t>
   </si>
   <si>
+    <t xml:space="preserve">y(see 5 steps)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(see concept if forgotten)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum time required to rot all oranges</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(BFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
   </si>
   <si>
+    <t xml:space="preserve">y(BFS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">First negative integer in every window of size “k”</t>
   </si>
   <si>
+    <t xml:space="preserve">y(sliding window using dequeue)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
   </si>
   <si>
+    <t xml:space="preserve">y(level order then sort and check anagram each lvl)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
   </si>
   <si>
+    <t xml:space="preserve">y(priority queue and frequency hashmap)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
   </si>
   <si>
     <t xml:space="preserve">Next Smaller Element</t>
   </si>
   <si>
+    <t xml:space="preserve">y(similar as next greater element)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heap</t>
   </si>
   <si>
@@ -1390,9 +1471,6 @@
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">YES(BFS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dijkstra algo</t>
   </si>
   <si>
@@ -1457,9 +1535,6 @@
   </si>
   <si>
     <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y(BFS)</t>
   </si>
   <si>
     <t xml:space="preserve">Find bridge in a graph</t>
@@ -2211,11 +2286,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C406" activeCellId="0" sqref="C406"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C298" activeCellId="0" sqref="C298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.67"/>
@@ -5339,7 +5414,7 @@
         <v>362</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5350,7 +5425,7 @@
         <v>363</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,7 +5436,7 @@
         <v>364</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>120</v>
+        <v>365</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,21 +5444,21 @@
         <v>361</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>120</v>
+        <v>368</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,10 +5466,10 @@
         <v>361</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,43 +5477,43 @@
         <v>361</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>120</v>
+        <v>376</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,10 +5521,10 @@
         <v>361</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>120</v>
+        <v>379</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,21 +5532,21 @@
         <v>361</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>120</v>
+        <v>382</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,21 +5554,21 @@
         <v>361</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>120</v>
+        <v>386</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5501,32 +5576,32 @@
         <v>361</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>120</v>
+        <v>390</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5534,21 +5609,21 @@
         <v>361</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>120</v>
+        <v>394</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,21 +5631,21 @@
         <v>361</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C317" s="6" t="s">
-        <v>120</v>
+        <v>397</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,10 +5653,10 @@
         <v>361</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>120</v>
+        <v>399</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,10 +5664,10 @@
         <v>361</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>120</v>
+        <v>401</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,10 +5675,10 @@
         <v>361</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>120</v>
+        <v>403</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,10 +5686,10 @@
         <v>361</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>120</v>
+        <v>405</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5622,10 +5697,10 @@
         <v>361</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5633,10 +5708,10 @@
         <v>361</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>120</v>
+        <v>408</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,32 +5719,32 @@
         <v>361</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>411</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,10 +5752,10 @@
         <v>361</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>120</v>
+        <v>416</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,10 +5763,10 @@
         <v>361</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,10 +5774,10 @@
         <v>361</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>120</v>
+        <v>420</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,10 +5785,10 @@
         <v>361</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,10 +5796,10 @@
         <v>361</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>120</v>
+        <v>423</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5732,10 +5807,10 @@
         <v>361</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,10 +5818,10 @@
         <v>361</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>120</v>
+        <v>426</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5762,10 +5837,10 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>10</v>
@@ -5773,21 +5848,21 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>8</v>
@@ -5795,43 +5870,43 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>8</v>
@@ -5839,10 +5914,10 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>10</v>
@@ -5850,10 +5925,10 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C344" s="9" t="s">
         <v>10</v>
@@ -5861,43 +5936,43 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>10</v>
@@ -5905,10 +5980,10 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>8</v>
@@ -5916,21 +5991,21 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>8</v>
@@ -5938,21 +6013,21 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>10</v>
@@ -5971,10 +6046,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C356" s="9" t="s">
         <v>10</v>
@@ -5982,10 +6057,10 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>10</v>
@@ -5993,10 +6068,10 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C358" s="9" t="s">
         <v>10</v>
@@ -6004,32 +6079,32 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>265</v>
@@ -6037,65 +6112,65 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>10</v>
@@ -6103,109 +6178,109 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>129</v>
@@ -6213,76 +6288,76 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>8</v>
@@ -6290,65 +6365,65 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>8</v>
@@ -6356,101 +6431,101 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,68 +6541,68 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,10 +6618,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>8</v>
@@ -6554,10 +6629,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>8</v>
@@ -6565,54 +6640,54 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C416" s="9" t="s">
         <v>10</v>
@@ -6620,7 +6695,7 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>343</v>
@@ -6631,21 +6706,21 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>8</v>
@@ -6653,10 +6728,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>8</v>
@@ -6664,21 +6739,21 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>10</v>
@@ -6686,10 +6761,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>8</v>
@@ -6697,10 +6772,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>10</v>
@@ -6708,54 +6783,54 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="C429" s="9" t="s">
         <v>10</v>
@@ -6763,21 +6838,21 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="C431" s="9" t="s">
         <v>10</v>
@@ -6785,10 +6860,10 @@
     </row>
     <row r="432" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="C432" s="9" t="s">
         <v>10</v>
@@ -6796,32 +6871,32 @@
     </row>
     <row r="433" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>10</v>
@@ -6829,10 +6904,10 @@
     </row>
     <row r="436" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>8</v>
@@ -6840,10 +6915,10 @@
     </row>
     <row r="437" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="C437" s="9" t="s">
         <v>21</v>
@@ -6851,21 +6926,21 @@
     </row>
     <row r="438" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>8</v>
@@ -6873,21 +6948,21 @@
     </row>
     <row r="440" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>8</v>
@@ -6895,21 +6970,21 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>10</v>
@@ -6917,10 +6992,10 @@
     </row>
     <row r="444" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>21</v>
@@ -6928,21 +7003,21 @@
     </row>
     <row r="445" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>8</v>
@@ -6950,21 +7025,21 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="C448" s="9" t="s">
         <v>10</v>
@@ -6972,10 +7047,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>8</v>
@@ -6983,10 +7058,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>8</v>
@@ -6994,54 +7069,54 @@
     </row>
     <row r="451" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="C455" s="9" t="s">
         <v>10</v>
@@ -7049,10 +7124,10 @@
     </row>
     <row r="456" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="C456" s="9" t="s">
         <v>10</v>
@@ -7060,145 +7135,145 @@
     </row>
     <row r="457" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,10 +7289,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>8</v>
@@ -7225,21 +7300,21 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>8</v>
@@ -7247,32 +7322,32 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="C477" s="9" t="s">
         <v>10</v>
@@ -7280,21 +7355,21 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="C479" s="9" t="s">
         <v>10</v>
@@ -7302,10 +7377,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C480" s="9" t="s">
         <v>10</v>
@@ -7313,10 +7388,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="C481" s="9" t="s">
         <v>10</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="667">
   <si>
     <t xml:space="preserve">YES(Iterative &amp; recursive)</t>
   </si>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
+    <t xml:space="preserve">YES(hash map)</t>
   </si>
   <si>
     <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
@@ -394,9 +394,6 @@
     <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
   </si>
   <si>
-    <t xml:space="preserve">YES(hash map)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
     <t xml:space="preserve">print all subarrays with 0 sum</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(handle when sum=0 and not 0 case seperately)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product array Puzzle</t>
   </si>
   <si>
@@ -490,60 +490,108 @@
     <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(count cycles)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bishu and Soldiers</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(binary search)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rasta and Kheshtak</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(rabinKarp w/ binary search)INC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kth smallest number again</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(merge interval and linear search)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find pivot element in a sorted array</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(pivot element is max in array)</t>
+  </si>
+  <si>
     <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(binary search to fidn cut, divide into l/r section)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aggressive cows</t>
   </si>
   <si>
     <t xml:space="preserve">Book Allocation Problem</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Similar as previous)</t>
+  </si>
+  <si>
     <t xml:space="preserve">EKOSPOJ:</t>
   </si>
   <si>
     <t xml:space="preserve">Job Scheduling Algo</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(DP+BS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Missing Number in AP</t>
   </si>
   <si>
     <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(#of trailing 0s = #of 5s in prime factor of n!)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Painters Partition Problem:</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(similar as book allocation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROTI-Prata SPOJ</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(search min time to prepare all prata)</t>
+  </si>
+  <si>
     <t xml:space="preserve">DoubleHelix SPOJ</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(2 pointer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subset Sums</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(meet at middle and binary search(lower/upper bound))</t>
+  </si>
+  <si>
     <t xml:space="preserve">Findthe inversion count</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(count inversions while merge sorting)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement Merge-sort in-place</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(sweep all right/shell sort kind)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
   </si>
   <si>
+    <t xml:space="preserve">YES(Dutch National Flag 3 way partitioning quicksort)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinkedList</t>
   </si>
   <si>
@@ -725,9 +773,6 @@
   </si>
   <si>
     <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES(Similar as previous)</t>
   </si>
   <si>
     <t xml:space="preserve">Top View of a tree</t>
@@ -953,6 +998,9 @@
   </si>
   <si>
     <t xml:space="preserve">Activity Selection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Job SequencingProblem</t>
@@ -2286,15 +2334,15 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C298" activeCellId="0" sqref="C298"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.51"/>
   </cols>
   <sheetData>
@@ -2438,7 +2486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3295,7 @@
         <v>123</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,10 +3303,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,7 +3314,7 @@
         <v>77</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>10</v>
@@ -3277,10 +3325,10 @@
         <v>77</v>
       </c>
       <c r="B94" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,10 +3336,10 @@
         <v>77</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,10 +3347,10 @@
         <v>77</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,10 +3358,10 @@
         <v>77</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,7 +3369,7 @@
         <v>77</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -3336,10 +3384,10 @@
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>8</v>
@@ -3347,10 +3395,10 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>8</v>
@@ -3358,10 +3406,10 @@
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>8</v>
@@ -3369,10 +3417,10 @@
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>8</v>
@@ -3380,10 +3428,10 @@
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>8</v>
@@ -3391,21 +3439,21 @@
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>8</v>
@@ -3413,10 +3461,10 @@
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>8</v>
@@ -3424,10 +3472,10 @@
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>8</v>
@@ -3435,10 +3483,10 @@
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>8</v>
@@ -3446,10 +3494,10 @@
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>8</v>
@@ -3457,10 +3505,10 @@
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>8</v>
@@ -3468,10 +3516,10 @@
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -3479,255 +3527,255 @@
     </row>
     <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>120</v>
+      <c r="C118" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>120</v>
+        <v>188</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,21 +3787,21 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>0</v>
@@ -3761,21 +3809,21 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>8</v>
@@ -3783,10 +3831,10 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>8</v>
@@ -3794,10 +3842,10 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>8</v>
@@ -3805,10 +3853,10 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>10</v>
@@ -3816,10 +3864,10 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>8</v>
@@ -3827,65 +3875,65 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>35</v>
@@ -3893,21 +3941,21 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>10</v>
@@ -3915,10 +3963,10 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>8</v>
@@ -3926,10 +3974,10 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>8</v>
@@ -3937,10 +3985,10 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>8</v>
@@ -3948,10 +3996,10 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -3959,10 +4007,10 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
@@ -3970,32 +4018,32 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>8</v>
@@ -4003,10 +4051,10 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -4014,43 +4062,43 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>8</v>
@@ -4058,10 +4106,10 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>10</v>
@@ -4069,21 +4117,21 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>8</v>
@@ -4091,21 +4139,21 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>8</v>
@@ -4113,24 +4161,24 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,10 +4190,10 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>10</v>
@@ -4153,10 +4201,10 @@
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>8</v>
@@ -4164,10 +4212,10 @@
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>8</v>
@@ -4175,10 +4223,10 @@
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>10</v>
@@ -4186,10 +4234,10 @@
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>10</v>
@@ -4197,10 +4245,10 @@
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>10</v>
@@ -4208,10 +4256,10 @@
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>10</v>
@@ -4219,10 +4267,10 @@
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>10</v>
@@ -4230,10 +4278,10 @@
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>10</v>
@@ -4241,21 +4289,21 @@
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>10</v>
@@ -4263,32 +4311,32 @@
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>8</v>
@@ -4296,10 +4344,10 @@
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>10</v>
@@ -4307,10 +4355,10 @@
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>10</v>
@@ -4318,10 +4366,10 @@
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>10</v>
@@ -4329,10 +4377,10 @@
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>10</v>
@@ -4340,10 +4388,10 @@
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>8</v>
@@ -4351,32 +4399,32 @@
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>8</v>
@@ -4384,10 +4432,10 @@
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -4395,32 +4443,32 @@
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>8</v>
@@ -4428,10 +4476,10 @@
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>10</v>
@@ -4439,10 +4487,10 @@
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>8</v>
@@ -4450,21 +4498,21 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -4472,10 +4520,10 @@
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>10</v>
@@ -4483,10 +4531,10 @@
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>8</v>
@@ -4494,32 +4542,32 @@
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>10</v>
@@ -4539,32 +4587,32 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>8</v>
@@ -4572,21 +4620,21 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>10</v>
@@ -4594,10 +4642,10 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>8</v>
@@ -4605,10 +4653,10 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>8</v>
@@ -4616,21 +4664,21 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>10</v>
@@ -4638,10 +4686,10 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>10</v>
@@ -4649,10 +4697,10 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>10</v>
@@ -4660,10 +4708,10 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>10</v>
@@ -4671,21 +4719,21 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>8</v>
@@ -4693,21 +4741,21 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>10</v>
@@ -4715,10 +4763,10 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>10</v>
@@ -4726,10 +4774,10 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>10</v>
@@ -4737,10 +4785,10 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>8</v>
@@ -4748,10 +4796,10 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>10</v>
@@ -4759,21 +4807,21 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>10</v>
@@ -4792,387 +4840,387 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B254" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5188,10 +5236,10 @@
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>10</v>
@@ -5199,21 +5247,21 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>10</v>
@@ -5221,10 +5269,10 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>10</v>
@@ -5232,10 +5280,10 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>10</v>
@@ -5243,10 +5291,10 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>10</v>
@@ -5254,10 +5302,10 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>10</v>
@@ -5265,10 +5313,10 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>8</v>
@@ -5276,21 +5324,21 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>10</v>
@@ -5298,10 +5346,10 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>10</v>
@@ -5309,43 +5357,43 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>10</v>
@@ -5353,10 +5401,10 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>8</v>
@@ -5364,10 +5412,10 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>8</v>
@@ -5375,24 +5423,24 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,10 +5456,10 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>8</v>
@@ -5419,10 +5467,10 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>8</v>
@@ -5430,43 +5478,43 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>8</v>
@@ -5474,10 +5522,10 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>8</v>
@@ -5485,87 +5533,87 @@
     </row>
     <row r="303" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C310" s="9" t="s">
         <v>10</v>
@@ -5573,10 +5621,10 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>8</v>
@@ -5584,43 +5632,43 @@
     </row>
     <row r="312" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>10</v>
@@ -5628,21 +5676,21 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C317" s="9" t="s">
         <v>10</v>
@@ -5650,54 +5698,54 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>8</v>
@@ -5705,109 +5753,109 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>10</v>
@@ -5815,13 +5863,13 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,10 +5885,10 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>10</v>
@@ -5848,21 +5896,21 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>8</v>
@@ -5870,43 +5918,43 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>8</v>
@@ -5914,10 +5962,10 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>10</v>
@@ -5925,10 +5973,10 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C344" s="9" t="s">
         <v>10</v>
@@ -5936,43 +5984,43 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>10</v>
@@ -5980,10 +6028,10 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>8</v>
@@ -5991,21 +6039,21 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>8</v>
@@ -6013,21 +6061,21 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>10</v>
@@ -6046,10 +6094,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C356" s="9" t="s">
         <v>10</v>
@@ -6057,10 +6105,10 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>10</v>
@@ -6068,10 +6116,10 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C358" s="9" t="s">
         <v>10</v>
@@ -6079,98 +6127,98 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>10</v>
@@ -6178,186 +6226,186 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>8</v>
@@ -6365,65 +6413,65 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>8</v>
@@ -6431,101 +6479,101 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,68 +6589,68 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,10 +6666,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>8</v>
@@ -6629,10 +6677,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>8</v>
@@ -6640,54 +6688,54 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="C416" s="9" t="s">
         <v>10</v>
@@ -6695,10 +6743,10 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>8</v>
@@ -6706,21 +6754,21 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>8</v>
@@ -6728,10 +6776,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>8</v>
@@ -6739,21 +6787,21 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>10</v>
@@ -6761,10 +6809,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>8</v>
@@ -6772,10 +6820,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>10</v>
@@ -6783,54 +6831,54 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="C429" s="9" t="s">
         <v>10</v>
@@ -6838,21 +6886,21 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="C431" s="9" t="s">
         <v>10</v>
@@ -6860,10 +6908,10 @@
     </row>
     <row r="432" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="C432" s="9" t="s">
         <v>10</v>
@@ -6871,32 +6919,32 @@
     </row>
     <row r="433" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>10</v>
@@ -6904,10 +6952,10 @@
     </row>
     <row r="436" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>8</v>
@@ -6915,10 +6963,10 @@
     </row>
     <row r="437" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="C437" s="9" t="s">
         <v>21</v>
@@ -6926,21 +6974,21 @@
     </row>
     <row r="438" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>8</v>
@@ -6948,21 +6996,21 @@
     </row>
     <row r="440" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>8</v>
@@ -6970,21 +7018,21 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>10</v>
@@ -6992,10 +7040,10 @@
     </row>
     <row r="444" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>21</v>
@@ -7003,21 +7051,21 @@
     </row>
     <row r="445" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>8</v>
@@ -7025,21 +7073,21 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="C448" s="9" t="s">
         <v>10</v>
@@ -7047,10 +7095,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>8</v>
@@ -7058,10 +7106,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>8</v>
@@ -7069,54 +7117,54 @@
     </row>
     <row r="451" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C455" s="9" t="s">
         <v>10</v>
@@ -7124,10 +7172,10 @@
     </row>
     <row r="456" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="C456" s="9" t="s">
         <v>10</v>
@@ -7135,145 +7183,145 @@
     </row>
     <row r="457" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,10 +7337,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>8</v>
@@ -7300,21 +7348,21 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>8</v>
@@ -7322,32 +7370,32 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="C477" s="9" t="s">
         <v>10</v>
@@ -7355,21 +7403,21 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="C479" s="9" t="s">
         <v>10</v>
@@ -7377,10 +7425,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="C480" s="9" t="s">
         <v>10</v>
@@ -7388,10 +7436,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="C481" s="9" t="s">
         <v>10</v>
